--- a/files/sample.xlsx
+++ b/files/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\excel.loc\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B96D60-7738-4CE9-87BD-29F38229A3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67151E0-523E-49A3-864E-CAFA9BCC1773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Calculator" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="Validstatus3">Validation!$G$5:$G$5</definedName>
     <definedName name="Validstatus4">Validation!$G$5:$G$5</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="172">
   <si>
     <t>Loan Applicants Details</t>
   </si>
@@ -1936,12 +1936,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="4" xr:uid="{BBCE6B80-E6CA-4473-A4DF-3744C6B2EBB3}"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="5" xr:uid="{F518726C-C1F0-4E27-8C7D-A833CC62DCD5}"/>
-    <cellStyle name="Денежный" xfId="3" builtinId="4"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Процентный" xfId="2" builtinId="5"/>
-    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -2476,9 +2476,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2516,7 +2516,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2622,7 +2622,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2775,8 +2775,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:DR152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3541,19 +3541,19 @@
       </c>
       <c r="AA6" s="60">
         <f>'Sample Calculator'!$B$31</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="60">
         <f>'Sample Calculator'!$C$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="60">
         <f>'Sample Calculator'!$E$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="60">
         <f>'Sample Calculator'!$G$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="60">
         <f t="shared" ref="AE6:AE11" si="0">IF($AE$3=1,AA6,0)</f>
@@ -3602,19 +3602,19 @@
       <c r="AP6" s="62"/>
       <c r="AQ6" s="60">
         <f>'Sample Calculator'!$B$31</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="60">
         <f>'Sample Calculator'!$C$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="60">
         <f>'Sample Calculator'!$E$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="60">
         <f>'Sample Calculator'!$G$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="60">
         <f t="shared" ref="AU6:AU11" si="2">IF($AE$3=1,AQ6,0)</f>
@@ -3662,19 +3662,19 @@
       </c>
       <c r="BG6" s="60">
         <f>'Sample Calculator'!$B$31</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="60">
         <f>'Sample Calculator'!$C$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="60">
         <f>'Sample Calculator'!$E$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ6" s="60">
         <f>'Sample Calculator'!$G$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BK6" s="60">
         <f t="shared" ref="BK6:BK11" si="4">IF($AE$3=1,BG6,0)</f>
@@ -3722,19 +3722,19 @@
       </c>
       <c r="BW6" s="60">
         <f>'Sample Calculator'!$B$31</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="60">
         <f>'Sample Calculator'!$C$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BY6" s="60">
         <f>'Sample Calculator'!$E$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BZ6" s="60">
         <f>'Sample Calculator'!$G$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA6" s="60">
         <f t="shared" ref="CA6:CA11" si="6">IF($AE$3=1,BW6,0)</f>
@@ -3782,19 +3782,19 @@
       </c>
       <c r="CM6" s="60">
         <f>'Sample Calculator'!$B$31</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="CN6" s="60">
         <f>'Sample Calculator'!$C$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CO6" s="60">
         <f>'Sample Calculator'!$E$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CP6" s="60">
         <f>'Sample Calculator'!$G$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CQ6" s="60">
         <f t="shared" ref="CQ6:CQ11" si="8">IF($AE$3=1,CM6,0)</f>
@@ -3842,19 +3842,19 @@
       </c>
       <c r="DC6" s="60">
         <f>'Sample Calculator'!$B$31</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="DD6" s="60">
         <f>'Sample Calculator'!$C$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DE6" s="60">
         <f>'Sample Calculator'!$E$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DF6" s="60">
         <f>'Sample Calculator'!$G$31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DG6" s="60">
         <f t="shared" ref="DG6:DG11" si="10">IF($AE$3=1,DC6,0)</f>
@@ -3933,19 +3933,19 @@
       </c>
       <c r="AA7" s="60">
         <f>'Sample Calculator'!$B$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="60">
         <f>'Sample Calculator'!$C$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="60">
         <f>'Sample Calculator'!$E$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="60">
         <f>'Sample Calculator'!$G$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="60">
         <f t="shared" si="0"/>
@@ -3993,19 +3993,19 @@
       </c>
       <c r="AQ7" s="60">
         <f>'Sample Calculator'!$B$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="60">
         <f>'Sample Calculator'!$C$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="60">
         <f>'Sample Calculator'!$E$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="60">
         <f>'Sample Calculator'!$G$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="60">
         <f t="shared" si="2"/>
@@ -4053,19 +4053,19 @@
       </c>
       <c r="BG7" s="60">
         <f>'Sample Calculator'!$B$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="60">
         <f>'Sample Calculator'!$C$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="60">
         <f>'Sample Calculator'!$E$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ7" s="60">
         <f>'Sample Calculator'!$G$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BK7" s="60">
         <f t="shared" si="4"/>
@@ -4113,19 +4113,19 @@
       </c>
       <c r="BW7" s="60">
         <f>'Sample Calculator'!$B$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="60">
         <f>'Sample Calculator'!$C$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BY7" s="60">
         <f>'Sample Calculator'!$E$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BZ7" s="60">
         <f>'Sample Calculator'!$G$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA7" s="60">
         <f t="shared" si="6"/>
@@ -4173,19 +4173,19 @@
       </c>
       <c r="CM7" s="60">
         <f>'Sample Calculator'!$B$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CN7" s="60">
         <f>'Sample Calculator'!$C$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CO7" s="60">
         <f>'Sample Calculator'!$E$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CP7" s="60">
         <f>'Sample Calculator'!$G$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CQ7" s="60">
         <f t="shared" si="8"/>
@@ -4233,19 +4233,19 @@
       </c>
       <c r="DC7" s="60">
         <f>'Sample Calculator'!$B$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DD7" s="60">
         <f>'Sample Calculator'!$C$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DE7" s="60">
         <f>'Sample Calculator'!$E$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DF7" s="60">
         <f>'Sample Calculator'!$G$32</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DG7" s="60">
         <f t="shared" si="10"/>
@@ -4324,19 +4324,19 @@
       </c>
       <c r="AA8" s="60">
         <f>'Sample Calculator'!$B$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="60">
         <f>'Sample Calculator'!$C$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="60">
         <f>'Sample Calculator'!$E$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="60">
         <f>'Sample Calculator'!$G$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="60">
         <f t="shared" si="0"/>
@@ -4385,19 +4385,19 @@
       <c r="AP8" s="65"/>
       <c r="AQ8" s="60">
         <f>'Sample Calculator'!$B$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="60">
         <f>'Sample Calculator'!$C$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="60">
         <f>'Sample Calculator'!$E$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="60">
         <f>'Sample Calculator'!$G$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="60">
         <f t="shared" si="2"/>
@@ -4446,19 +4446,19 @@
       <c r="BF8" s="65"/>
       <c r="BG8" s="60">
         <f>'Sample Calculator'!$B$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="60">
         <f>'Sample Calculator'!$C$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="60">
         <f>'Sample Calculator'!$E$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="BJ8" s="60">
         <f>'Sample Calculator'!$G$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="BK8" s="60">
         <f t="shared" si="4"/>
@@ -4507,19 +4507,19 @@
       <c r="BV8" s="65"/>
       <c r="BW8" s="60">
         <f>'Sample Calculator'!$B$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="60">
         <f>'Sample Calculator'!$C$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="BY8" s="60">
         <f>'Sample Calculator'!$E$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="BZ8" s="60">
         <f>'Sample Calculator'!$G$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="CA8" s="60">
         <f t="shared" si="6"/>
@@ -4568,19 +4568,19 @@
       <c r="CL8" s="65"/>
       <c r="CM8" s="60">
         <f>'Sample Calculator'!$B$33</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CN8" s="60">
         <f>'Sample Calculator'!$C$33</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CO8" s="60">
         <f>'Sample Calculator'!$E$33</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CP8" s="60">
         <f>'Sample Calculator'!$G$33</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CQ8" s="60">
         <f t="shared" si="8"/>
@@ -4629,19 +4629,19 @@
       <c r="DB8" s="65"/>
       <c r="DC8" s="60">
         <f>'Sample Calculator'!$B$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="DD8" s="60">
         <f>'Sample Calculator'!$C$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="DE8" s="60">
         <f>'Sample Calculator'!$E$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="DF8" s="60">
         <f>'Sample Calculator'!$G$33*0.8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="DG8" s="60">
         <f t="shared" si="10"/>
@@ -4720,19 +4720,19 @@
       </c>
       <c r="AA9" s="60">
         <f>'Sample Calculator'!$B$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="60">
         <f>'Sample Calculator'!$C$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="60">
         <f>'Sample Calculator'!$E$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="60">
         <f>'Sample Calculator'!$G$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="60">
         <f t="shared" si="0"/>
@@ -4781,19 +4781,19 @@
       <c r="AP9" s="65"/>
       <c r="AQ9" s="60">
         <f>'Sample Calculator'!$B$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="60">
         <f>'Sample Calculator'!$C$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="60">
         <f>'Sample Calculator'!$E$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="60">
         <f>'Sample Calculator'!$G$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="60">
         <f t="shared" si="2"/>
@@ -4842,19 +4842,19 @@
       <c r="BF9" s="65"/>
       <c r="BG9" s="60">
         <f>'Sample Calculator'!$B$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="60">
         <f>'Sample Calculator'!$C$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="60">
         <f>'Sample Calculator'!$E$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BJ9" s="60">
         <f>'Sample Calculator'!$G$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BK9" s="60">
         <f t="shared" si="4"/>
@@ -4903,19 +4903,19 @@
       <c r="BV9" s="65"/>
       <c r="BW9" s="60">
         <f>'Sample Calculator'!$B$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="60">
         <f>'Sample Calculator'!$C$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BY9" s="60">
         <f>'Sample Calculator'!$E$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BZ9" s="60">
         <f>'Sample Calculator'!$G$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="CA9" s="60">
         <f t="shared" si="6"/>
@@ -4964,19 +4964,19 @@
       <c r="CL9" s="65"/>
       <c r="CM9" s="60">
         <f>'Sample Calculator'!$B$34</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CN9" s="60">
         <f>'Sample Calculator'!$C$34</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CO9" s="60">
         <f>'Sample Calculator'!$E$34</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CP9" s="60">
         <f>'Sample Calculator'!$G$34</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CQ9" s="60">
         <f t="shared" si="8"/>
@@ -5025,19 +5025,19 @@
       <c r="DB9" s="65"/>
       <c r="DC9" s="60">
         <f>'Sample Calculator'!$B$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="DD9" s="60">
         <f>'Sample Calculator'!$C$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="DE9" s="60">
         <f>'Sample Calculator'!$E$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="DF9" s="60">
         <f>'Sample Calculator'!$G$34*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="DG9" s="60">
         <f t="shared" si="10"/>
@@ -5114,19 +5114,19 @@
       </c>
       <c r="AA10" s="60">
         <f>'Sample Calculator'!$B$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="60">
         <f>'Sample Calculator'!$C$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="60">
         <f>'Sample Calculator'!$E$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="60">
         <f>'Sample Calculator'!$G$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="60">
         <f t="shared" si="0"/>
@@ -5175,19 +5175,19 @@
       <c r="AP10" s="65"/>
       <c r="AQ10" s="60">
         <f>'Sample Calculator'!$B$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="60">
         <f>'Sample Calculator'!$C$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="60">
         <f>'Sample Calculator'!$E$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="60">
         <f>'Sample Calculator'!$G$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="60">
         <f t="shared" si="2"/>
@@ -5236,19 +5236,19 @@
       <c r="BF10" s="65"/>
       <c r="BG10" s="60">
         <f>'Sample Calculator'!$B$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="60">
         <f>'Sample Calculator'!$C$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="60">
         <f>'Sample Calculator'!$E$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BJ10" s="60">
         <f>'Sample Calculator'!$G$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BK10" s="60">
         <f t="shared" si="4"/>
@@ -5297,19 +5297,19 @@
       <c r="BV10" s="65"/>
       <c r="BW10" s="60">
         <f>'Sample Calculator'!$B$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="60">
         <f>'Sample Calculator'!$C$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BY10" s="60">
         <f>'Sample Calculator'!$E$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BZ10" s="60">
         <f>'Sample Calculator'!$G$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="CA10" s="60">
         <f t="shared" si="6"/>
@@ -5358,19 +5358,19 @@
       <c r="CL10" s="65"/>
       <c r="CM10" s="60">
         <f>'Sample Calculator'!$B$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="CN10" s="60">
         <f>'Sample Calculator'!$C$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="CO10" s="60">
         <f>'Sample Calculator'!$E$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="CP10" s="60">
         <f>'Sample Calculator'!$G$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="CQ10" s="60">
         <f t="shared" si="8"/>
@@ -5419,19 +5419,19 @@
       <c r="DB10" s="65"/>
       <c r="DC10" s="60">
         <f>'Sample Calculator'!$B$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="DD10" s="60">
         <f>'Sample Calculator'!$C$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="DE10" s="60">
         <f>'Sample Calculator'!$E$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="DF10" s="60">
         <f>'Sample Calculator'!$G$35*0.9</f>
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="DG10" s="60">
         <f t="shared" si="10"/>
@@ -5898,19 +5898,19 @@
       </c>
       <c r="AA12" s="60">
         <f t="shared" ref="AA12:AN12" si="100">SUM(AA$6:AA$11)</f>
-        <v>43.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="60">
         <f t="shared" si="100"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="60">
         <f t="shared" si="100"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="60">
         <f t="shared" si="100"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="60">
         <f t="shared" si="100"/>
@@ -5959,19 +5959,19 @@
       <c r="AP12" s="62"/>
       <c r="AQ12" s="60">
         <f t="shared" ref="AQ12:BD12" si="101">SUM(AQ$6:AQ$11)</f>
-        <v>43.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="60">
         <f t="shared" si="101"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="60">
         <f t="shared" si="101"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="60">
         <f t="shared" si="101"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="60">
         <f t="shared" si="101"/>
@@ -6019,19 +6019,19 @@
       </c>
       <c r="BG12" s="60">
         <f t="shared" ref="BG12:BU12" si="102">SUM(BG$6:BG$11)</f>
-        <v>43.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="60">
         <f t="shared" si="102"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="60">
         <f t="shared" si="102"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="BJ12" s="60">
         <f t="shared" si="102"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="BK12" s="60">
         <f t="shared" si="102"/>
@@ -6079,19 +6079,19 @@
       </c>
       <c r="BW12" s="60">
         <f t="shared" ref="BW12:CK12" si="103">SUM(BW$6:BW$11)</f>
-        <v>43.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="60">
         <f t="shared" si="103"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="BY12" s="60">
         <f t="shared" si="103"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="BZ12" s="60">
         <f t="shared" si="103"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="CA12" s="60">
         <f t="shared" si="103"/>
@@ -6139,19 +6139,19 @@
       </c>
       <c r="CM12" s="60">
         <f t="shared" ref="CM12:DA12" si="104">SUM(CM$6:CM$11)</f>
-        <v>44.7</v>
+        <v>0</v>
       </c>
       <c r="CN12" s="60">
         <f t="shared" si="104"/>
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="CO12" s="60">
         <f t="shared" si="104"/>
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="CP12" s="60">
         <f t="shared" si="104"/>
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="CQ12" s="60">
         <f t="shared" si="104"/>
@@ -6199,19 +6199,19 @@
       </c>
       <c r="DC12" s="60">
         <f t="shared" ref="DC12:DQ12" si="105">SUM(DC$6:DC$11)</f>
-        <v>43.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="DD12" s="60">
         <f t="shared" si="105"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="DE12" s="60">
         <f t="shared" si="105"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="DF12" s="60">
         <f t="shared" si="105"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="DG12" s="60">
         <f t="shared" si="105"/>
@@ -6263,19 +6263,11 @@
       <c r="A13" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="43">
-        <v>3</v>
-      </c>
-      <c r="C13" s="112">
-        <v>4</v>
-      </c>
-      <c r="D13" s="150">
-        <v>2</v>
-      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="150"/>
       <c r="E13" s="150"/>
-      <c r="F13" s="161">
-        <v>0.04</v>
-      </c>
+      <c r="F13" s="161"/>
       <c r="G13" s="161"/>
       <c r="H13" s="162"/>
       <c r="I13" s="163"/>
@@ -6661,19 +6653,11 @@
       <c r="A14" s="119" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="43">
-        <v>2</v>
-      </c>
-      <c r="C14" s="112">
-        <v>4</v>
-      </c>
-      <c r="D14" s="150">
-        <v>2</v>
-      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="150"/>
       <c r="E14" s="150"/>
-      <c r="F14" s="161">
-        <v>0.45</v>
-      </c>
+      <c r="F14" s="161"/>
       <c r="G14" s="161"/>
       <c r="H14" s="162"/>
       <c r="I14" s="163"/>
@@ -7059,19 +7043,11 @@
       <c r="A15" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="43">
-        <v>2</v>
-      </c>
-      <c r="C15" s="112">
-        <v>5</v>
-      </c>
-      <c r="D15" s="150">
-        <v>2</v>
-      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="150"/>
       <c r="E15" s="150"/>
-      <c r="F15" s="161">
-        <v>0.45</v>
-      </c>
+      <c r="F15" s="161"/>
       <c r="G15" s="161"/>
       <c r="H15" s="162"/>
       <c r="I15" s="163"/>
@@ -7457,23 +7433,13 @@
       <c r="A16" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="44">
-        <v>2</v>
-      </c>
-      <c r="C16" s="112">
-        <v>3</v>
-      </c>
-      <c r="D16" s="150">
-        <v>2</v>
-      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="150"/>
       <c r="E16" s="150"/>
-      <c r="F16" s="161">
-        <v>0.45</v>
-      </c>
+      <c r="F16" s="161"/>
       <c r="G16" s="161"/>
-      <c r="H16" s="162" t="s">
-        <v>26</v>
-      </c>
+      <c r="H16" s="162"/>
       <c r="I16" s="163"/>
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
@@ -7488,11 +7454,11 @@
       </c>
       <c r="AA16" s="73">
         <f>$B$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="73">
         <f>$C$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="73">
         <f>$D$36</f>
@@ -7500,7 +7466,7 @@
       </c>
       <c r="AD16" s="73">
         <f>$E$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="60">
         <f>IF($AE$3=1,AA16,0)</f>
@@ -7549,11 +7515,11 @@
       <c r="AP16" s="70"/>
       <c r="AQ16" s="73">
         <f>$B$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="73">
         <f>$C$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS16" s="73">
         <f>$D$36</f>
@@ -7561,7 +7527,7 @@
       </c>
       <c r="AT16" s="73">
         <f>$E$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="60">
         <f>IF($AE$3=1,AQ16,0)</f>
@@ -7609,11 +7575,11 @@
       </c>
       <c r="BG16" s="73">
         <f>$B$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="73">
         <f>$C$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="73">
         <f>$D$36</f>
@@ -7621,7 +7587,7 @@
       </c>
       <c r="BJ16" s="73">
         <f>$E$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BK16" s="60">
         <f>IF($AE$3=1,BG16,0)</f>
@@ -7669,11 +7635,11 @@
       </c>
       <c r="BW16" s="73">
         <f>$B$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="73">
         <f>$C$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BY16" s="73">
         <f>$D$36</f>
@@ -7681,7 +7647,7 @@
       </c>
       <c r="BZ16" s="73">
         <f>$E$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA16" s="60">
         <f>IF($AE$3=1,BW16,0)</f>
@@ -7729,11 +7695,11 @@
       </c>
       <c r="CM16" s="73">
         <f>$B$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CN16" s="73">
         <f>$C$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CO16" s="73">
         <f>$D$36</f>
@@ -7741,7 +7707,7 @@
       </c>
       <c r="CP16" s="73">
         <f>$E$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CQ16" s="60">
         <f>IF($AE$3=1,CM16,0)</f>
@@ -7789,11 +7755,11 @@
       </c>
       <c r="DC16" s="73">
         <f>$B$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DD16" s="73">
         <f>$C$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DE16" s="73">
         <f>$D$36</f>
@@ -7801,7 +7767,7 @@
       </c>
       <c r="DF16" s="73">
         <f>$E$36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DG16" s="60">
         <f>IF($AE$3=1,DC16,0)</f>
@@ -7853,13 +7819,9 @@
       <c r="A17" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="44">
-        <v>2</v>
-      </c>
+      <c r="B17" s="44"/>
       <c r="C17" s="112"/>
-      <c r="D17" s="150">
-        <v>2</v>
-      </c>
+      <c r="D17" s="150"/>
       <c r="E17" s="150"/>
       <c r="F17" s="161"/>
       <c r="G17" s="161"/>
@@ -7878,19 +7840,19 @@
       </c>
       <c r="AA17" s="74">
         <f>AA$12-AA$15</f>
-        <v>43.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="74">
         <f>AB$12-AB$15</f>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="74">
         <f>AC$12-AC$15</f>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="74">
         <f>AD$12-AD$15</f>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="60">
         <f>IF($AE$3=1,AA17,0)</f>
@@ -7938,19 +7900,19 @@
       </c>
       <c r="AQ17" s="74">
         <f>AQ$12-AQ$15</f>
-        <v>43.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="74">
         <f>AR$12-AR$15</f>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="74">
         <f>AS$12-AS$15</f>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="74">
         <f>AT$12-AT$15</f>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="60">
         <f>IF($AE$3=1,AQ17,0)</f>
@@ -7998,19 +7960,19 @@
       </c>
       <c r="BG17" s="74">
         <f>BG$12-BG$15</f>
-        <v>43.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="BH17" s="74">
         <f>BH$12-BH$15</f>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="74">
         <f>BI$12-BI$15</f>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="BJ17" s="74">
         <f>BJ$12-BJ$15</f>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="BK17" s="60">
         <f>IF($AE$3=1,BG17,0)</f>
@@ -8058,19 +8020,19 @@
       </c>
       <c r="BW17" s="74">
         <f>BW$12-BW$15</f>
-        <v>43.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="74">
         <f>BX$12-BX$15</f>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="BY17" s="74">
         <f>BY$12-BY$15</f>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="BZ17" s="74">
         <f>BZ$12-BZ$15</f>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="CA17" s="60">
         <f>IF($AE$3=1,BW17,0)</f>
@@ -8118,19 +8080,19 @@
       </c>
       <c r="CM17" s="74">
         <f>CM$12-CM$15</f>
-        <v>44.7</v>
+        <v>0</v>
       </c>
       <c r="CN17" s="74">
         <f>CN$12-CN$15</f>
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="CO17" s="74">
         <f>CO$12-CO$15</f>
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="CP17" s="74">
         <f>CP$12-CP$15</f>
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="CQ17" s="60">
         <f>IF($AE$3=1,CM17,0)</f>
@@ -8178,19 +8140,19 @@
       </c>
       <c r="DC17" s="74">
         <f>DC$12-DC$15</f>
-        <v>43.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="DD17" s="74">
         <f>DD$12-DD$15</f>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="DE17" s="74">
         <f>DE$12-DE$15</f>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="DF17" s="74">
         <f>DF$12-DF$15</f>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="DG17" s="60">
         <f>IF($AE$3=1,DC17,0)</f>
@@ -8249,7 +8211,7 @@
       <c r="F18" s="188"/>
       <c r="G18" s="189">
         <f>SUM($B$13:$B$17)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H18" s="189"/>
       <c r="I18" s="190"/>
@@ -8266,19 +8228,19 @@
       </c>
       <c r="AA18" s="60">
         <f t="shared" ref="AA18:AN18" si="187">AA$12-AA$15+AA16</f>
-        <v>46.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="60">
         <f t="shared" si="187"/>
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="60">
         <f t="shared" si="187"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="60">
         <f t="shared" si="187"/>
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="60">
         <f t="shared" si="187"/>
@@ -8326,19 +8288,19 @@
       </c>
       <c r="AQ18" s="60">
         <f t="shared" ref="AQ18:BD18" si="188">AQ$12-AQ$15+AQ16</f>
-        <v>46.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="60">
         <f t="shared" si="188"/>
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="60">
         <f t="shared" si="188"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="60">
         <f t="shared" si="188"/>
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="60">
         <f t="shared" si="188"/>
@@ -8386,19 +8348,19 @@
       </c>
       <c r="BG18" s="60">
         <f t="shared" ref="BG18:BT18" si="189">BG$12-BG$15+BG16</f>
-        <v>46.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="60">
         <f t="shared" si="189"/>
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="60">
         <f t="shared" si="189"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="BJ18" s="60">
         <f t="shared" si="189"/>
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="BK18" s="60">
         <f t="shared" si="189"/>
@@ -8446,19 +8408,19 @@
       </c>
       <c r="BW18" s="60">
         <f t="shared" ref="BW18:CJ18" si="190">BW$12-BW$15+BW16</f>
-        <v>46.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="60">
         <f t="shared" si="190"/>
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="BY18" s="60">
         <f t="shared" si="190"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="BZ18" s="60">
         <f t="shared" si="190"/>
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="CA18" s="60">
         <f t="shared" si="190"/>
@@ -8506,19 +8468,19 @@
       </c>
       <c r="CM18" s="60">
         <f t="shared" ref="CM18:CZ18" si="191">CM$12-CM$15+CM16</f>
-        <v>47.7</v>
+        <v>0</v>
       </c>
       <c r="CN18" s="60">
         <f t="shared" si="191"/>
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="CO18" s="60">
         <f t="shared" si="191"/>
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="CP18" s="60">
         <f t="shared" si="191"/>
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="CQ18" s="60">
         <f t="shared" si="191"/>
@@ -8566,19 +8528,19 @@
       </c>
       <c r="DC18" s="60">
         <f t="shared" ref="DC18:DP18" si="192">DC$12-DC$15+DC16</f>
-        <v>46.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="DD18" s="60">
         <f t="shared" si="192"/>
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="DE18" s="60">
         <f t="shared" si="192"/>
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="DF18" s="60">
         <f t="shared" si="192"/>
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="DG18" s="60">
         <f t="shared" si="192"/>
@@ -9034,19 +8996,19 @@
       </c>
       <c r="AA20" s="73">
         <f>IF(AA$17=0,0,IF(AND(AA$17&gt;='Tax Calculations'!$A$23,AA$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((AA$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(AA$17&gt;='Tax Calculations'!$A$22,AA$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((AA$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(AA$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="73">
         <f>IF(AB$17=0,0,IF(AND(AB$17&gt;='Tax Calculations'!$A$23,AB$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((AB$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(AB$17&gt;='Tax Calculations'!$A$22,AB$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((AB$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(AB$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="73">
         <f>IF(AC$17=0,0,IF(AND(AC$17&gt;='Tax Calculations'!$A$23,AC$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((AC$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(AC$17&gt;='Tax Calculations'!$A$22,AC$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((AC$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(AC$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="73">
         <f>IF(AD$17=0,0,IF(AND(AD$17&gt;='Tax Calculations'!$A$23,AD$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((AD$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(AD$17&gt;='Tax Calculations'!$A$22,AD$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((AD$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(AD$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="73">
         <f>IF(AE$17=0,0,IF(AND(AE$17&gt;='Tax Calculations'!$A$23,AE$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((AE$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(AE$17&gt;='Tax Calculations'!$A$22,AE$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((AE$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(AE$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
@@ -9094,19 +9056,19 @@
       </c>
       <c r="AQ20" s="73">
         <f>IF(AQ$17=0,0,IF(AND(AQ$17&gt;='Tax Calculations'!$A$23,AQ$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((AQ$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(AQ$17&gt;='Tax Calculations'!$A$22,AQ$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((AQ$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(AQ$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="73">
         <f>IF(AR$17=0,0,IF(AND(AR$17&gt;='Tax Calculations'!$A$23,AR$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((AR$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(AR$17&gt;='Tax Calculations'!$A$22,AR$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((AR$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(AR$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="73">
         <f>IF(AS$17=0,0,IF(AND(AS$17&gt;='Tax Calculations'!$A$23,AS$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((AS$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(AS$17&gt;='Tax Calculations'!$A$22,AS$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((AS$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(AS$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="73">
         <f>IF(AT$17=0,0,IF(AND(AT$17&gt;='Tax Calculations'!$A$23,AT$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((AT$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(AT$17&gt;='Tax Calculations'!$A$22,AT$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((AT$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(AT$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="60">
         <f>IF($AE$3=1,AQ20,0)</f>
@@ -9154,19 +9116,19 @@
       </c>
       <c r="BG20" s="73">
         <f>IF(BG$17=0,0,IF(AND(BG$17&gt;='Tax Calculations'!$A$23,BG$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((BG$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(BG$17&gt;='Tax Calculations'!$A$22,BG$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((BG$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(BG$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="BH20" s="73">
         <f>IF(BH$17=0,0,IF(AND(BH$17&gt;='Tax Calculations'!$A$23,BH$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((BH$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(BH$17&gt;='Tax Calculations'!$A$22,BH$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((BH$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(BH$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="73">
         <f>IF(BI$17=0,0,IF(AND(BI$17&gt;='Tax Calculations'!$A$23,BI$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((BI$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(BI$17&gt;='Tax Calculations'!$A$22,BI$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((BI$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(BI$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="BJ20" s="73">
         <f>IF(BJ$17=0,0,IF(AND(BJ$17&gt;='Tax Calculations'!$A$23,BJ$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((BJ$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(BJ$17&gt;='Tax Calculations'!$A$22,BJ$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((BJ$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(BJ$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="BK20" s="73">
         <f>IF(BK$17=0,0,IF(AND(BK$17&gt;='Tax Calculations'!$A$23,BK$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((BK$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(BK$17&gt;='Tax Calculations'!$A$22,BK$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((BK$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(BK$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
@@ -9214,19 +9176,19 @@
       </c>
       <c r="BW20" s="73">
         <f>IF(BW$17=0,0,IF(AND(BW$17&gt;='Tax Calculations'!$A$23,BW$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((BW$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(BW$17&gt;='Tax Calculations'!$A$22,BW$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((BW$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(BW$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="73">
         <f>IF(BX$17=0,0,IF(AND(BX$17&gt;='Tax Calculations'!$A$23,BX$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((BX$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(BX$17&gt;='Tax Calculations'!$A$22,BX$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((BX$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(BX$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="BY20" s="73">
         <f>IF(BY$17=0,0,IF(AND(BY$17&gt;='Tax Calculations'!$A$23,BY$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((BY$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(BY$17&gt;='Tax Calculations'!$A$22,BY$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((BY$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(BY$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="BZ20" s="73">
         <f>IF(BZ$17=0,0,IF(AND(BZ$17&gt;='Tax Calculations'!$A$23,BZ$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((BZ$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(BZ$17&gt;='Tax Calculations'!$A$22,BZ$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((BZ$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(BZ$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="CA20" s="73">
         <f>IF(CA$17=0,0,IF(AND(CA$17&gt;='Tax Calculations'!$A$23,CA$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((CA$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(CA$17&gt;='Tax Calculations'!$A$22,CA$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((CA$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(CA$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
@@ -9274,19 +9236,19 @@
       </c>
       <c r="CM20" s="73">
         <f>IF(CM$17=0,0,IF(AND(CM$17&gt;='Tax Calculations'!$A$23,CM$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((CM$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(CM$17&gt;='Tax Calculations'!$A$22,CM$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((CM$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(CM$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="CN20" s="73">
         <f>IF(CN$17=0,0,IF(AND(CN$17&gt;='Tax Calculations'!$A$23,CN$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((CN$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(CN$17&gt;='Tax Calculations'!$A$22,CN$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((CN$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(CN$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="CO20" s="73">
         <f>IF(CO$17=0,0,IF(AND(CO$17&gt;='Tax Calculations'!$A$23,CO$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((CO$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(CO$17&gt;='Tax Calculations'!$A$22,CO$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((CO$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(CO$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="CP20" s="73">
         <f>IF(CP$17=0,0,IF(AND(CP$17&gt;='Tax Calculations'!$A$23,CP$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((CP$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(CP$17&gt;='Tax Calculations'!$A$22,CP$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((CP$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(CP$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="CQ20" s="73">
         <f>IF(CQ$17=0,0,IF(AND(CQ$17&gt;='Tax Calculations'!$A$23,CQ$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((CQ$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(CQ$17&gt;='Tax Calculations'!$A$22,CQ$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((CQ$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(CQ$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
@@ -9334,19 +9296,19 @@
       </c>
       <c r="DC20" s="73">
         <f>IF(DC$17=0,0,IF(AND(DC$17&gt;='Tax Calculations'!$A$23,DC$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((DC$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(DC$17&gt;='Tax Calculations'!$A$22,DC$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((DC$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(DC$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="DD20" s="73">
         <f>IF(DD$17=0,0,IF(AND(DD$17&gt;='Tax Calculations'!$A$23,DD$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((DD$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(DD$17&gt;='Tax Calculations'!$A$22,DD$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((DD$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(DD$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="DE20" s="73">
         <f>IF(DE$17=0,0,IF(AND(DE$17&gt;='Tax Calculations'!$A$23,DE$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((DE$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(DE$17&gt;='Tax Calculations'!$A$22,DE$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((DE$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(DE$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="DF20" s="73">
         <f>IF(DF$17=0,0,IF(AND(DF$17&gt;='Tax Calculations'!$A$23,DF$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((DF$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(DF$17&gt;='Tax Calculations'!$A$22,DF$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((DF$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(DF$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="DG20" s="73">
         <f>IF(DG$17=0,0,IF(AND(DG$17&gt;='Tax Calculations'!$A$23,DG$17&lt;='Tax Calculations'!$B$23),'Tax Calculations'!$D$23-((DG$17-'Tax Calculations'!$B$22)*'Tax Calculations'!$C$23),IF(AND(DG$17&gt;='Tax Calculations'!$A$22,DG$17&lt;='Tax Calculations'!$B$22),'Tax Calculations'!$D$22-((DG$17-'Tax Calculations'!$B$21)*'Tax Calculations'!$C$22),IF(DG$17&lt;'Tax Calculations'!$B$21,'Tax Calculations'!$D$21,0))))</f>
@@ -9419,19 +9381,19 @@
       </c>
       <c r="AA21" s="73">
         <f>IF(AA$17=0,0,IF(AND(AA$17&gt;='Tax Calculations'!$A$16,AA$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((AA$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(AA$17&gt;='Tax Calculations'!$A$15,AA$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(AA$17&gt;='Tax Calculations'!$A$14,AA$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AA$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(AA$17&gt;='Tax Calculations'!$A$14,AA$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AA$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(AA$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="73">
         <f>IF(AB$17=0,0,IF(AND(AB$17&gt;='Tax Calculations'!$A$16,AB$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((AB$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(AB$17&gt;='Tax Calculations'!$A$15,AB$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(AB$17&gt;='Tax Calculations'!$A$14,AB$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AB$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(AB$17&gt;='Tax Calculations'!$A$14,AB$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AB$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(AB$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="73">
         <f>IF(AC$17=0,0,IF(AND(AC$17&gt;='Tax Calculations'!$A$16,AC$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((AC$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(AC$17&gt;='Tax Calculations'!$A$15,AC$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(AC$17&gt;='Tax Calculations'!$A$14,AC$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AC$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(AC$17&gt;='Tax Calculations'!$A$14,AC$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AC$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(AC$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="73">
         <f>IF(AD$17=0,0,IF(AND(AD$17&gt;='Tax Calculations'!$A$16,AD$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((AD$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(AD$17&gt;='Tax Calculations'!$A$15,AD$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(AD$17&gt;='Tax Calculations'!$A$14,AD$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AD$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(AD$17&gt;='Tax Calculations'!$A$14,AD$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AD$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(AD$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="73">
         <f>IF(AE$17=0,0,IF(AND(AE$17&gt;='Tax Calculations'!$A$16,AE$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((AE$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(AE$17&gt;='Tax Calculations'!$A$15,AE$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(AE$17&gt;='Tax Calculations'!$A$14,AE$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AE$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(AE$17&gt;='Tax Calculations'!$A$14,AE$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AE$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(AE$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
@@ -9479,19 +9441,19 @@
       </c>
       <c r="AQ21" s="73">
         <f>IF(AQ$17=0,0,IF(AND(AQ$17&gt;='Tax Calculations'!$A$16,AQ$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((AQ$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(AQ$17&gt;='Tax Calculations'!$A$15,AQ$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(AQ$17&gt;='Tax Calculations'!$A$14,AQ$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AQ$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(AQ$17&gt;='Tax Calculations'!$A$14,AQ$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AQ$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(AQ$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="73">
         <f>IF(AR$17=0,0,IF(AND(AR$17&gt;='Tax Calculations'!$A$16,AR$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((AR$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(AR$17&gt;='Tax Calculations'!$A$15,AR$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(AR$17&gt;='Tax Calculations'!$A$14,AR$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AR$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(AR$17&gt;='Tax Calculations'!$A$14,AR$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AR$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(AR$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="73">
         <f>IF(AS$17=0,0,IF(AND(AS$17&gt;='Tax Calculations'!$A$16,AS$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((AS$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(AS$17&gt;='Tax Calculations'!$A$15,AS$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(AS$17&gt;='Tax Calculations'!$A$14,AS$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AS$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(AS$17&gt;='Tax Calculations'!$A$14,AS$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AS$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(AS$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="73">
         <f>IF(AT$17=0,0,IF(AND(AT$17&gt;='Tax Calculations'!$A$16,AT$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((AT$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(AT$17&gt;='Tax Calculations'!$A$15,AT$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(AT$17&gt;='Tax Calculations'!$A$14,AT$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AT$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(AT$17&gt;='Tax Calculations'!$A$14,AT$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AT$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(AT$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="73">
         <f>IF(AU$17=0,0,IF(AND(AU$17&gt;='Tax Calculations'!$A$16,AU$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((AU$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(AU$17&gt;='Tax Calculations'!$A$15,AU$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(AU$17&gt;='Tax Calculations'!$A$14,AU$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AU$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(AU$17&gt;='Tax Calculations'!$A$14,AU$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((AU$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(AU$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
@@ -9539,19 +9501,19 @@
       </c>
       <c r="BG21" s="73">
         <f>IF(BG$17=0,0,IF(AND(BG$17&gt;='Tax Calculations'!$A$16,BG$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((BG$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(BG$17&gt;='Tax Calculations'!$A$15,BG$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(BG$17&gt;='Tax Calculations'!$A$14,BG$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BG$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(BG$17&gt;='Tax Calculations'!$A$14,BG$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BG$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(BG$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="BH21" s="73">
         <f>IF(BH$17=0,0,IF(AND(BH$17&gt;='Tax Calculations'!$A$16,BH$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((BH$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(BH$17&gt;='Tax Calculations'!$A$15,BH$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(BH$17&gt;='Tax Calculations'!$A$14,BH$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BH$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(BH$17&gt;='Tax Calculations'!$A$14,BH$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BH$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(BH$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="73">
         <f>IF(BI$17=0,0,IF(AND(BI$17&gt;='Tax Calculations'!$A$16,BI$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((BI$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(BI$17&gt;='Tax Calculations'!$A$15,BI$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(BI$17&gt;='Tax Calculations'!$A$14,BI$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BI$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(BI$17&gt;='Tax Calculations'!$A$14,BI$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BI$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(BI$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="BJ21" s="73">
         <f>IF(BJ$17=0,0,IF(AND(BJ$17&gt;='Tax Calculations'!$A$16,BJ$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((BJ$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(BJ$17&gt;='Tax Calculations'!$A$15,BJ$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(BJ$17&gt;='Tax Calculations'!$A$14,BJ$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BJ$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(BJ$17&gt;='Tax Calculations'!$A$14,BJ$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BJ$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(BJ$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="BK21" s="73">
         <f>IF(BK$17=0,0,IF(AND(BK$17&gt;='Tax Calculations'!$A$16,BK$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((BK$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(BK$17&gt;='Tax Calculations'!$A$15,BK$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(BK$17&gt;='Tax Calculations'!$A$14,BK$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BK$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(BK$17&gt;='Tax Calculations'!$A$14,BK$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BK$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(BK$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
@@ -9599,19 +9561,19 @@
       </c>
       <c r="BW21" s="73">
         <f>IF(BW$17=0,0,IF(AND(BW$17&gt;='Tax Calculations'!$A$16,BW$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((BW$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(BW$17&gt;='Tax Calculations'!$A$15,BW$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(BW$17&gt;='Tax Calculations'!$A$14,BW$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BW$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(BW$17&gt;='Tax Calculations'!$A$14,BW$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BW$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(BW$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="73">
         <f>IF(BX$17=0,0,IF(AND(BX$17&gt;='Tax Calculations'!$A$16,BX$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((BX$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(BX$17&gt;='Tax Calculations'!$A$15,BX$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(BX$17&gt;='Tax Calculations'!$A$14,BX$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BX$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(BX$17&gt;='Tax Calculations'!$A$14,BX$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BX$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(BX$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="BY21" s="73">
         <f>IF(BY$17=0,0,IF(AND(BY$17&gt;='Tax Calculations'!$A$16,BY$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((BY$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(BY$17&gt;='Tax Calculations'!$A$15,BY$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(BY$17&gt;='Tax Calculations'!$A$14,BY$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BY$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(BY$17&gt;='Tax Calculations'!$A$14,BY$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BY$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(BY$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="BZ21" s="73">
         <f>IF(BZ$17=0,0,IF(AND(BZ$17&gt;='Tax Calculations'!$A$16,BZ$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((BZ$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(BZ$17&gt;='Tax Calculations'!$A$15,BZ$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(BZ$17&gt;='Tax Calculations'!$A$14,BZ$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BZ$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(BZ$17&gt;='Tax Calculations'!$A$14,BZ$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((BZ$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(BZ$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="CA21" s="73">
         <f>IF(CA$17=0,0,IF(AND(CA$17&gt;='Tax Calculations'!$A$16,CA$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((CA$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(CA$17&gt;='Tax Calculations'!$A$15,CA$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(CA$17&gt;='Tax Calculations'!$A$14,CA$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((CA$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(CA$17&gt;='Tax Calculations'!$A$14,CA$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((CA$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(CA$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
@@ -9659,19 +9621,19 @@
       </c>
       <c r="CM21" s="73">
         <f>IF(CM$17=0,0,IF(AND(CM$17&gt;='Tax Calculations'!$A$16,CM$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((CM$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(CM$17&gt;='Tax Calculations'!$A$15,CM$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(CM$17&gt;='Tax Calculations'!$A$14,CM$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((CM$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(CM$17&gt;='Tax Calculations'!$A$14,CM$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((CM$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(CM$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="CN21" s="73">
         <f>IF(CN$17=0,0,IF(AND(CN$17&gt;='Tax Calculations'!$A$16,CN$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((CN$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(CN$17&gt;='Tax Calculations'!$A$15,CN$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(CN$17&gt;='Tax Calculations'!$A$14,CN$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((CN$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(CN$17&gt;='Tax Calculations'!$A$14,CN$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((CN$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(CN$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="CO21" s="73">
         <f>IF(CO$17=0,0,IF(AND(CO$17&gt;='Tax Calculations'!$A$16,CO$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((CO$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(CO$17&gt;='Tax Calculations'!$A$15,CO$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(CO$17&gt;='Tax Calculations'!$A$14,CO$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((CO$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(CO$17&gt;='Tax Calculations'!$A$14,CO$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((CO$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(CO$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="CP21" s="73">
         <f>IF(CP$17=0,0,IF(AND(CP$17&gt;='Tax Calculations'!$A$16,CP$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((CP$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(CP$17&gt;='Tax Calculations'!$A$15,CP$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(CP$17&gt;='Tax Calculations'!$A$14,CP$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((CP$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(CP$17&gt;='Tax Calculations'!$A$14,CP$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((CP$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(CP$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="CQ21" s="73">
         <f>IF(CQ$17=0,0,IF(AND(CQ$17&gt;='Tax Calculations'!$A$16,CQ$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((CQ$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(CQ$17&gt;='Tax Calculations'!$A$15,CQ$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(CQ$17&gt;='Tax Calculations'!$A$14,CQ$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((CQ$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(CQ$17&gt;='Tax Calculations'!$A$14,CQ$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((CQ$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(CQ$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
@@ -9719,19 +9681,19 @@
       </c>
       <c r="DC21" s="73">
         <f>IF(DC$17=0,0,IF(AND(DC$17&gt;='Tax Calculations'!$A$16,DC$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((DC$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(DC$17&gt;='Tax Calculations'!$A$15,DC$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(DC$17&gt;='Tax Calculations'!$A$14,DC$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((DC$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(DC$17&gt;='Tax Calculations'!$A$14,DC$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((DC$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(DC$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="DD21" s="73">
         <f>IF(DD$17=0,0,IF(AND(DD$17&gt;='Tax Calculations'!$A$16,DD$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((DD$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(DD$17&gt;='Tax Calculations'!$A$15,DD$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(DD$17&gt;='Tax Calculations'!$A$14,DD$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((DD$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(DD$17&gt;='Tax Calculations'!$A$14,DD$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((DD$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(DD$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="DE21" s="73">
         <f>IF(DE$17=0,0,IF(AND(DE$17&gt;='Tax Calculations'!$A$16,DE$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((DE$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(DE$17&gt;='Tax Calculations'!$A$15,DE$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(DE$17&gt;='Tax Calculations'!$A$14,DE$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((DE$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(DE$17&gt;='Tax Calculations'!$A$14,DE$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((DE$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(DE$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="DF21" s="73">
         <f>IF(DF$17=0,0,IF(AND(DF$17&gt;='Tax Calculations'!$A$16,DF$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((DF$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(DF$17&gt;='Tax Calculations'!$A$15,DF$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(DF$17&gt;='Tax Calculations'!$A$14,DF$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((DF$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(DF$17&gt;='Tax Calculations'!$A$14,DF$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((DF$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(DF$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="DG21" s="73">
         <f>IF(DG$17=0,0,IF(AND(DG$17&gt;='Tax Calculations'!$A$16,DG$17&lt;='Tax Calculations'!$B$16),'Tax Calculations'!$D$16-((DG$17-'Tax Calculations'!$B$15)*'Tax Calculations'!$C$16),IF(AND(DG$17&gt;='Tax Calculations'!$A$15,DG$17&lt;='Tax Calculations'!$B$15),'Tax Calculations'!$D$15,IF(IF(AND(DG$17&gt;='Tax Calculations'!$A$14,DG$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((DG$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),0)&gt;'Tax Calculations'!$D$14,'Tax Calculations'!$D$14,IF(AND(DG$17&gt;='Tax Calculations'!$A$14,DG$17&lt;='Tax Calculations'!$B$14),'Tax Calculations'!$D$13+((DG$17-'Tax Calculations'!$B$13)*'Tax Calculations'!$C$14),IF(DG$17&lt;'Tax Calculations'!$B$13,'Tax Calculations'!$D$13,0))))))</f>
@@ -9783,9 +9745,7 @@
       <c r="A22" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="191">
-        <v>3</v>
-      </c>
+      <c r="B22" s="191"/>
       <c r="C22" s="191"/>
       <c r="D22" s="191"/>
       <c r="E22" s="191"/>
@@ -9806,19 +9766,19 @@
       </c>
       <c r="AA22" s="60">
         <f>IF(AA$17=0,0,AA$18*0.02)</f>
-        <v>0.93600000000000005</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="60">
         <f>IF(AB$17=0,0,AB$18*0.02)</f>
-        <v>0.33600000000000002</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="60">
         <f>IF(AC$17=0,0,AC$18*0.02)</f>
-        <v>0.27600000000000002</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="60">
         <f>IF(AD$17=0,0,AD$18*0.02)</f>
-        <v>0.33600000000000002</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="60">
         <f t="shared" ref="AE22:AN22" si="202">IF(AE$17=0,0,AE$17*0.02)</f>
@@ -9866,19 +9826,19 @@
       </c>
       <c r="AQ22" s="60">
         <f>IF(AQ$17=0,0,AQ$18*0.02)</f>
-        <v>0.93600000000000005</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="60">
         <f>IF(AR$17=0,0,AR$18*0.02)</f>
-        <v>0.33600000000000002</v>
+        <v>0</v>
       </c>
       <c r="AS22" s="60">
         <f>IF(AS$17=0,0,AS$18*0.02)</f>
-        <v>0.27600000000000002</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="60">
         <f>IF(AT$17=0,0,AT$18*0.02)</f>
-        <v>0.33600000000000002</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="60">
         <f t="shared" ref="AU22:BD22" si="203">IF(AU$17=0,0,AU$17*0.02)</f>
@@ -9926,19 +9886,19 @@
       </c>
       <c r="BG22" s="60">
         <f>IF(BG$17=0,0,BG$18*0.02)</f>
-        <v>0.93600000000000005</v>
+        <v>0</v>
       </c>
       <c r="BH22" s="60">
         <f>IF(BH$17=0,0,BH$18*0.02)</f>
-        <v>0.33600000000000002</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="60">
         <f>IF(BI$17=0,0,BI$18*0.02)</f>
-        <v>0.27600000000000002</v>
+        <v>0</v>
       </c>
       <c r="BJ22" s="60">
         <f>IF(BJ$17=0,0,BJ$18*0.02)</f>
-        <v>0.33600000000000002</v>
+        <v>0</v>
       </c>
       <c r="BK22" s="60">
         <f t="shared" ref="BK22:BT22" si="204">IF(BK$17=0,0,BK$17*0.02)</f>
@@ -9986,19 +9946,19 @@
       </c>
       <c r="BW22" s="60">
         <f>IF(BW$17=0,0,BW$18*0.02)</f>
-        <v>0.93600000000000005</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="60">
         <f>IF(BX$17=0,0,BX$18*0.02)</f>
-        <v>0.33600000000000002</v>
+        <v>0</v>
       </c>
       <c r="BY22" s="60">
         <f>IF(BY$17=0,0,BY$18*0.02)</f>
-        <v>0.27600000000000002</v>
+        <v>0</v>
       </c>
       <c r="BZ22" s="60">
         <f>IF(BZ$17=0,0,BZ$18*0.02)</f>
-        <v>0.33600000000000002</v>
+        <v>0</v>
       </c>
       <c r="CA22" s="60">
         <f t="shared" ref="CA22:CJ22" si="205">IF(CA$17=0,0,CA$17*0.02)</f>
@@ -10046,19 +10006,19 @@
       </c>
       <c r="CM22" s="60">
         <f>IF(CM$17=0,0,CM$18*0.02)</f>
-        <v>0.95400000000000007</v>
+        <v>0</v>
       </c>
       <c r="CN22" s="60">
         <f>IF(CN$17=0,0,CN$18*0.02)</f>
-        <v>0.35399999999999998</v>
+        <v>0</v>
       </c>
       <c r="CO22" s="60">
         <f>IF(CO$17=0,0,CO$18*0.02)</f>
-        <v>0.29399999999999998</v>
+        <v>0</v>
       </c>
       <c r="CP22" s="60">
         <f>IF(CP$17=0,0,CP$18*0.02)</f>
-        <v>0.35399999999999998</v>
+        <v>0</v>
       </c>
       <c r="CQ22" s="60">
         <f t="shared" ref="CQ22:CZ22" si="206">IF(CQ$17=0,0,CQ$17*0.02)</f>
@@ -10106,19 +10066,19 @@
       </c>
       <c r="DC22" s="60">
         <f>IF(DC$17=0,0,DC$18*0.02)</f>
-        <v>0.93600000000000005</v>
+        <v>0</v>
       </c>
       <c r="DD22" s="60">
         <f>IF(DD$17=0,0,DD$18*0.02)</f>
-        <v>0.33600000000000002</v>
+        <v>0</v>
       </c>
       <c r="DE22" s="60">
         <f>IF(DE$17=0,0,DE$18*0.02)</f>
-        <v>0.27600000000000002</v>
+        <v>0</v>
       </c>
       <c r="DF22" s="60">
         <f>IF(DF$17=0,0,DF$18*0.02)</f>
-        <v>0.33600000000000002</v>
+        <v>0</v>
       </c>
       <c r="DG22" s="60">
         <f t="shared" ref="DG22:DP22" si="207">IF(DG$17=0,0,DG$17*0.02)</f>
@@ -10170,9 +10130,7 @@
       <c r="A23" s="119" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="191">
-        <v>3</v>
-      </c>
+      <c r="B23" s="191"/>
       <c r="C23" s="191"/>
       <c r="D23" s="191"/>
       <c r="E23" s="191"/>
@@ -10193,19 +10151,19 @@
       </c>
       <c r="AA23" s="60">
         <f>IF(AA$17=0,0,AA$19+AA$22-AA$21)</f>
-        <v>-254.06399999999999</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="60">
         <f>IF(AB$17=0,0,AB$19+AB$22-AB$21)</f>
-        <v>-254.66399999999999</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="60">
         <f>IF(AC$17=0,0,AC$19+AC$22-AC$21)</f>
-        <v>-254.72399999999999</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="60">
         <f>IF(AD$17=0,0,AD$19+AD$22-AD$21)</f>
-        <v>-254.66399999999999</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="60">
         <f>IF(AA$6=0,IF(AE$17=0,0,AE$19+AE$22-AE$21),IF($AE$3=1,AA23,0))</f>
@@ -10253,19 +10211,19 @@
       </c>
       <c r="AQ23" s="60">
         <f>IF(AQ$17=0,0,AQ$19+AQ$22-AQ$21)</f>
-        <v>-254.06399999999999</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="60">
         <f>IF(AR$17=0,0,AR$19+AR$22-AR$21)</f>
-        <v>-254.66399999999999</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="60">
         <f>IF(AS$17=0,0,AS$19+AS$22-AS$21)</f>
-        <v>-254.72399999999999</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="60">
         <f>IF(AT$17=0,0,AT$19+AT$22-AT$21)</f>
-        <v>-254.66399999999999</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="60">
         <f>IF(AQ$6=0,IF(AU$17=0,0,AU$19+AU$22-AU$21),IF($AE$3=1,AQ23,0))</f>
@@ -10313,19 +10271,19 @@
       </c>
       <c r="BG23" s="60">
         <f>IF(BG$17=0,0,BG$19+BG$22-BG$21)</f>
-        <v>-254.06399999999999</v>
+        <v>0</v>
       </c>
       <c r="BH23" s="60">
         <f>IF(BH$17=0,0,BH$19+BH$22-BH$21)</f>
-        <v>-254.66399999999999</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="60">
         <f>IF(BI$17=0,0,BI$19+BI$22-BI$21)</f>
-        <v>-254.72399999999999</v>
+        <v>0</v>
       </c>
       <c r="BJ23" s="60">
         <f>IF(BJ$17=0,0,BJ$19+BJ$22-BJ$21)</f>
-        <v>-254.66399999999999</v>
+        <v>0</v>
       </c>
       <c r="BK23" s="60">
         <f>IF(BG$6=0,IF(BK$17=0,0,BK$19+BK$22-BK$21),IF($AE$3=1,BG23,0))</f>
@@ -10373,19 +10331,19 @@
       </c>
       <c r="BW23" s="60">
         <f>IF(BW$17=0,0,BW$19+BW$22-BW$21)</f>
-        <v>-254.06399999999999</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="60">
         <f>IF(BX$17=0,0,BX$19+BX$22-BX$21)</f>
-        <v>-254.66399999999999</v>
+        <v>0</v>
       </c>
       <c r="BY23" s="60">
         <f>IF(BY$17=0,0,BY$19+BY$22-BY$21)</f>
-        <v>-254.72399999999999</v>
+        <v>0</v>
       </c>
       <c r="BZ23" s="60">
         <f>IF(BZ$17=0,0,BZ$19+BZ$22-BZ$21)</f>
-        <v>-254.66399999999999</v>
+        <v>0</v>
       </c>
       <c r="CA23" s="60">
         <f>IF(BW$6=0,IF(CA$17=0,0,CA$19+CA$22-CA$21),IF($AE$3=1,BW23,0))</f>
@@ -10433,19 +10391,19 @@
       </c>
       <c r="CM23" s="60">
         <f>IF(CM$17=0,0,CM$19+CM$22-CM$21)</f>
-        <v>-254.04599999999999</v>
+        <v>0</v>
       </c>
       <c r="CN23" s="60">
         <f>IF(CN$17=0,0,CN$19+CN$22-CN$21)</f>
-        <v>-254.64599999999999</v>
+        <v>0</v>
       </c>
       <c r="CO23" s="60">
         <f>IF(CO$17=0,0,CO$19+CO$22-CO$21)</f>
-        <v>-254.70599999999999</v>
+        <v>0</v>
       </c>
       <c r="CP23" s="60">
         <f>IF(CP$17=0,0,CP$19+CP$22-CP$21)</f>
-        <v>-254.64599999999999</v>
+        <v>0</v>
       </c>
       <c r="CQ23" s="60">
         <f>IF(CM$6=0,IF(CQ$17=0,0,CQ$19+CQ$22-CQ$21),IF($AE$3=1,CM23,0))</f>
@@ -10493,19 +10451,19 @@
       </c>
       <c r="DC23" s="60">
         <f>IF(DC$17=0,0,DC$19+DC$22-DC$21)</f>
-        <v>-254.06399999999999</v>
+        <v>0</v>
       </c>
       <c r="DD23" s="60">
         <f>IF(DD$17=0,0,DD$19+DD$22-DD$21)</f>
-        <v>-254.66399999999999</v>
+        <v>0</v>
       </c>
       <c r="DE23" s="60">
         <f>IF(DE$17=0,0,DE$19+DE$22-DE$21)</f>
-        <v>-254.72399999999999</v>
+        <v>0</v>
       </c>
       <c r="DF23" s="60">
         <f>IF(DF$17=0,0,DF$19+DF$22-DF$21)</f>
-        <v>-254.66399999999999</v>
+        <v>0</v>
       </c>
       <c r="DG23" s="60">
         <f>IF(DC$6=0,IF(DG$17=0,0,DG$19+DG$22-DG$21),IF($AE$3=1,DC23,0))</f>
@@ -10557,9 +10515,7 @@
       <c r="A24" s="119" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="174">
-        <v>3</v>
-      </c>
+      <c r="B24" s="174"/>
       <c r="C24" s="174"/>
       <c r="D24" s="174"/>
       <c r="E24" s="174"/>
@@ -10580,19 +10536,19 @@
       </c>
       <c r="AA24" s="60">
         <f t="shared" ref="AA24:AN24" si="208">IFERROR((AA$12-AA$23),0)+AA$16</f>
-        <v>300.86399999999998</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="60">
         <f t="shared" si="208"/>
-        <v>271.464</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="60">
         <f t="shared" si="208"/>
-        <v>268.524</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="60">
         <f t="shared" si="208"/>
-        <v>271.464</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="60">
         <f t="shared" si="208"/>
@@ -10640,19 +10596,19 @@
       </c>
       <c r="AQ24" s="60">
         <f t="shared" ref="AQ24:BD24" si="209">IFERROR((AQ$12-AQ$23),0)+AQ$16</f>
-        <v>300.86399999999998</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="60">
         <f t="shared" si="209"/>
-        <v>271.464</v>
+        <v>0</v>
       </c>
       <c r="AS24" s="60">
         <f t="shared" si="209"/>
-        <v>268.524</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="60">
         <f t="shared" si="209"/>
-        <v>271.464</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="60">
         <f t="shared" si="209"/>
@@ -10700,19 +10656,19 @@
       </c>
       <c r="BG24" s="60">
         <f t="shared" ref="BG24:BT24" si="210">IFERROR((BG$12-BG$23),0)+BG$16</f>
-        <v>300.86399999999998</v>
+        <v>0</v>
       </c>
       <c r="BH24" s="60">
         <f t="shared" si="210"/>
-        <v>271.464</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="60">
         <f t="shared" si="210"/>
-        <v>268.524</v>
+        <v>0</v>
       </c>
       <c r="BJ24" s="60">
         <f t="shared" si="210"/>
-        <v>271.464</v>
+        <v>0</v>
       </c>
       <c r="BK24" s="60">
         <f t="shared" si="210"/>
@@ -10760,19 +10716,19 @@
       </c>
       <c r="BW24" s="60">
         <f t="shared" ref="BW24:CJ24" si="211">IFERROR((BW$12-BW$23),0)+BW$16</f>
-        <v>300.86399999999998</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="60">
         <f t="shared" si="211"/>
-        <v>271.464</v>
+        <v>0</v>
       </c>
       <c r="BY24" s="60">
         <f t="shared" si="211"/>
-        <v>268.524</v>
+        <v>0</v>
       </c>
       <c r="BZ24" s="60">
         <f t="shared" si="211"/>
-        <v>271.464</v>
+        <v>0</v>
       </c>
       <c r="CA24" s="60">
         <f t="shared" si="211"/>
@@ -10820,19 +10776,19 @@
       </c>
       <c r="CM24" s="60">
         <f t="shared" ref="CM24:CZ24" si="212">IFERROR((CM$12-CM$23),0)+CM$16</f>
-        <v>301.74599999999998</v>
+        <v>0</v>
       </c>
       <c r="CN24" s="60">
         <f t="shared" si="212"/>
-        <v>272.346</v>
+        <v>0</v>
       </c>
       <c r="CO24" s="60">
         <f t="shared" si="212"/>
-        <v>269.40600000000001</v>
+        <v>0</v>
       </c>
       <c r="CP24" s="60">
         <f t="shared" si="212"/>
-        <v>272.346</v>
+        <v>0</v>
       </c>
       <c r="CQ24" s="60">
         <f t="shared" si="212"/>
@@ -10880,19 +10836,19 @@
       </c>
       <c r="DC24" s="60">
         <f t="shared" ref="DC24:DP24" si="213">IFERROR((DC$12-DC$23),0)+DC$16</f>
-        <v>300.86399999999998</v>
+        <v>0</v>
       </c>
       <c r="DD24" s="60">
         <f t="shared" si="213"/>
-        <v>271.464</v>
+        <v>0</v>
       </c>
       <c r="DE24" s="60">
         <f t="shared" si="213"/>
-        <v>268.524</v>
+        <v>0</v>
       </c>
       <c r="DF24" s="60">
         <f t="shared" si="213"/>
-        <v>271.464</v>
+        <v>0</v>
       </c>
       <c r="DG24" s="60">
         <f t="shared" si="213"/>
@@ -10944,9 +10900,7 @@
       <c r="A25" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="174">
-        <v>3</v>
-      </c>
+      <c r="B25" s="174"/>
       <c r="C25" s="174"/>
       <c r="D25" s="174"/>
       <c r="E25" s="174"/>
@@ -11332,9 +11286,7 @@
       <c r="A26" s="119" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="174">
-        <v>3</v>
-      </c>
+      <c r="B26" s="174"/>
       <c r="C26" s="174"/>
       <c r="D26" s="174"/>
       <c r="E26" s="174"/>
@@ -11723,7 +11675,7 @@
       <c r="B27" s="179"/>
       <c r="C27" s="184">
         <f>SUM(B22:$B$26)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D27" s="184"/>
       <c r="E27" s="185" t="s">
@@ -11732,7 +11684,7 @@
       <c r="F27" s="185"/>
       <c r="G27" s="180">
         <f>IFERROR(($G$18/$C$27),0)</f>
-        <v>0.73333333333333328</v>
+        <v>0</v>
       </c>
       <c r="H27" s="180"/>
       <c r="I27" s="181"/>
@@ -12134,19 +12086,19 @@
       </c>
       <c r="AA28" s="60">
         <f t="shared" ref="AA28:AO28" si="235">AA$24-AA$27</f>
-        <v>-13040.612557264863</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="AB28" s="60">
         <f t="shared" si="235"/>
-        <v>-13070.012557264863</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="AC28" s="60">
         <f t="shared" si="235"/>
-        <v>-13072.952557264864</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="AD28" s="60">
         <f t="shared" si="235"/>
-        <v>-13070.012557264863</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="AE28" s="60">
         <f t="shared" si="235"/>
@@ -12194,19 +12146,19 @@
       </c>
       <c r="AQ28" s="60">
         <f t="shared" ref="AQ28:BE28" si="236">AQ$24-AQ$27</f>
-        <v>-13040.612557264863</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="AR28" s="60">
         <f t="shared" si="236"/>
-        <v>-13070.012557264863</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="AS28" s="60">
         <f t="shared" si="236"/>
-        <v>-13072.952557264864</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="AT28" s="60">
         <f t="shared" si="236"/>
-        <v>-13070.012557264863</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="AU28" s="60">
         <f t="shared" si="236"/>
@@ -12254,19 +12206,19 @@
       </c>
       <c r="BG28" s="60">
         <f t="shared" ref="BG28:BU28" si="237">BG$24-BG$27</f>
-        <v>-13040.612557264863</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="BH28" s="60">
         <f t="shared" si="237"/>
-        <v>-13070.012557264863</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="BI28" s="60">
         <f t="shared" si="237"/>
-        <v>-13072.952557264864</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="BJ28" s="60">
         <f t="shared" si="237"/>
-        <v>-13070.012557264863</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="BK28" s="60">
         <f t="shared" si="237"/>
@@ -12314,19 +12266,19 @@
       </c>
       <c r="BW28" s="60">
         <f t="shared" ref="BW28:CK28" si="238">BW$24-BW$27</f>
-        <v>-13040.612557264863</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="BX28" s="60">
         <f t="shared" si="238"/>
-        <v>-13070.012557264863</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="BY28" s="60">
         <f t="shared" si="238"/>
-        <v>-13072.952557264864</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="BZ28" s="60">
         <f t="shared" si="238"/>
-        <v>-13070.012557264863</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="CA28" s="60">
         <f t="shared" si="238"/>
@@ -12374,19 +12326,19 @@
       </c>
       <c r="CM28" s="60">
         <f t="shared" ref="CM28:DA28" si="239">CM$24-CM$27</f>
-        <v>-13039.730557264864</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="CN28" s="60">
         <f t="shared" si="239"/>
-        <v>-13069.130557264863</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="CO28" s="60">
         <f t="shared" si="239"/>
-        <v>-13072.070557264862</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="CP28" s="60">
         <f t="shared" si="239"/>
-        <v>-13069.130557264863</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="CQ28" s="60">
         <f t="shared" si="239"/>
@@ -12434,19 +12386,19 @@
       </c>
       <c r="DC28" s="60">
         <f t="shared" ref="DC28:DQ28" si="240">DC$24-DC$27</f>
-        <v>-13040.612557264863</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="DD28" s="60">
         <f t="shared" si="240"/>
-        <v>-13070.012557264863</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="DE28" s="60">
         <f t="shared" si="240"/>
-        <v>-13072.952557264864</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="DF28" s="60">
         <f t="shared" si="240"/>
-        <v>-13070.012557264863</v>
+        <v>-13341.476557264863</v>
       </c>
       <c r="DG28" s="60">
         <f t="shared" si="240"/>
@@ -12896,20 +12848,12 @@
       <c r="A30" s="119" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="183" t="s">
-        <v>25</v>
-      </c>
+      <c r="B30" s="112"/>
+      <c r="C30" s="183"/>
       <c r="D30" s="183"/>
-      <c r="E30" s="183" t="s">
-        <v>25</v>
-      </c>
+      <c r="E30" s="183"/>
       <c r="F30" s="183"/>
-      <c r="G30" s="183" t="s">
-        <v>25</v>
-      </c>
+      <c r="G30" s="183"/>
       <c r="H30" s="183"/>
       <c r="I30" s="125"/>
       <c r="J30" s="57"/>
@@ -12925,19 +12869,19 @@
       </c>
       <c r="AA30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="60">
         <f>IF($AE$3=1,AA30,0)</f>
@@ -12985,19 +12929,19 @@
       </c>
       <c r="AQ30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="AR30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="AS30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="60">
         <f>IF($AE$3=1,AQ30,0)</f>
@@ -13045,19 +12989,19 @@
       </c>
       <c r="BG30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="BH30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="BI30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="BJ30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="BK30" s="60">
         <f>IF($AE$3=1,BG30,0)</f>
@@ -13105,19 +13049,19 @@
       </c>
       <c r="BW30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="BX30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="BY30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="BZ30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="CA30" s="60">
         <f>IF($AE$3=1,BW30,0)</f>
@@ -13165,19 +13109,19 @@
       </c>
       <c r="CM30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="CN30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="CO30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="CP30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="CQ30" s="60">
         <f>IF($AE$3=1,CM30,0)</f>
@@ -13225,19 +13169,19 @@
       </c>
       <c r="DC30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="DD30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="DE30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="DF30" s="60">
         <f>IF(($F$13+$T$4)&gt;$T$3,(IFERROR(-PMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17),0)),(IFERROR(-PMT($T$3/12,($C$13-$D$13)*12,$B$13),0)+IFERROR(-PMT($T$3/12,($C$14-$D$14)*12,$B$14),0)+IFERROR(-PMT($T$3/12,($C$15-$D$15)*12,$B$15),0)+IFERROR(-PMT($T$3/12,($C$16-$D$16)*12,$B$16),0)+IFERROR(-PMT($T$3/12,($C$17-$D$17)*12,$B$17),0)))</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="DG30" s="60">
         <f>IF($AE$3=1,DC30,0)</f>
@@ -13289,24 +13233,16 @@
       <c r="A31" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="110">
-        <v>33</v>
-      </c>
-      <c r="C31" s="174">
-        <v>3</v>
-      </c>
+      <c r="B31" s="110"/>
+      <c r="C31" s="174"/>
       <c r="D31" s="174"/>
-      <c r="E31" s="174">
-        <v>3</v>
-      </c>
+      <c r="E31" s="174"/>
       <c r="F31" s="174"/>
-      <c r="G31" s="174">
-        <v>3</v>
-      </c>
+      <c r="G31" s="174"/>
       <c r="H31" s="174"/>
       <c r="I31" s="126">
         <f>SUM(B31:G31)</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="J31" s="50"/>
       <c r="K31" s="50"/>
@@ -13321,19 +13257,19 @@
       </c>
       <c r="AA31" s="60">
         <f t="shared" ref="AA31:AO31" si="256">AA$30+AA$29</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="60">
         <f t="shared" si="256"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="60">
         <f t="shared" si="256"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="60">
         <f t="shared" si="256"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="60">
         <f t="shared" si="256"/>
@@ -13381,19 +13317,19 @@
       </c>
       <c r="AQ31" s="60">
         <f t="shared" ref="AQ31:BE31" si="257">AQ$30+AQ$29</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="AR31" s="60">
         <f t="shared" si="257"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="60">
         <f t="shared" si="257"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="60">
         <f t="shared" si="257"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="60">
         <f t="shared" si="257"/>
@@ -13441,19 +13377,19 @@
       </c>
       <c r="BG31" s="60">
         <f t="shared" ref="BG31:BU31" si="258">BG$30+BG$29</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="BH31" s="60">
         <f t="shared" si="258"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="BI31" s="60">
         <f t="shared" si="258"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="BJ31" s="60">
         <f t="shared" si="258"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="BK31" s="60">
         <f t="shared" si="258"/>
@@ -13501,19 +13437,19 @@
       </c>
       <c r="BW31" s="60">
         <f t="shared" ref="BW31:CK31" si="259">BW$30+BW$29</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="BX31" s="60">
         <f t="shared" si="259"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="BY31" s="60">
         <f t="shared" si="259"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="BZ31" s="60">
         <f t="shared" si="259"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="CA31" s="60">
         <f t="shared" si="259"/>
@@ -13561,19 +13497,19 @@
       </c>
       <c r="CM31" s="60">
         <f t="shared" ref="CM31:DA31" si="260">CM$30+CM$29</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="CN31" s="60">
         <f t="shared" si="260"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="CO31" s="60">
         <f t="shared" si="260"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="CP31" s="60">
         <f t="shared" si="260"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="CQ31" s="60">
         <f t="shared" si="260"/>
@@ -13621,19 +13557,19 @@
       </c>
       <c r="DC31" s="60">
         <f t="shared" ref="DC31:DQ31" si="261">DC$30+DC$29</f>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="DD31" s="60">
         <f t="shared" si="261"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="DE31" s="60">
         <f t="shared" si="261"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="DF31" s="60">
         <f t="shared" si="261"/>
-        <v>0.50065302839661863</v>
+        <v>0</v>
       </c>
       <c r="DG31" s="60">
         <f t="shared" si="261"/>
@@ -13685,24 +13621,16 @@
       <c r="A32" s="119" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="110">
-        <v>3</v>
-      </c>
-      <c r="C32" s="174">
-        <v>3</v>
-      </c>
+      <c r="B32" s="110"/>
+      <c r="C32" s="174"/>
       <c r="D32" s="174"/>
-      <c r="E32" s="174">
-        <v>3</v>
-      </c>
+      <c r="E32" s="174"/>
       <c r="F32" s="174"/>
-      <c r="G32" s="174">
-        <v>3</v>
-      </c>
+      <c r="G32" s="174"/>
       <c r="H32" s="174"/>
       <c r="I32" s="126">
         <f>SUM(B32:G32)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J32" s="84"/>
       <c r="K32" s="84"/>
@@ -13717,19 +13645,19 @@
       </c>
       <c r="AA32" s="60">
         <f t="shared" ref="AA32:AO32" si="262">AA$31*12</f>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="60">
         <f t="shared" si="262"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="60">
         <f t="shared" si="262"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="60">
         <f t="shared" si="262"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="60">
         <f t="shared" si="262"/>
@@ -13777,19 +13705,19 @@
       </c>
       <c r="AQ32" s="60">
         <f t="shared" ref="AQ32:BE32" si="263">AQ$31*12</f>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="AR32" s="60">
         <f t="shared" si="263"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="AS32" s="60">
         <f t="shared" si="263"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="60">
         <f t="shared" si="263"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="60">
         <f t="shared" si="263"/>
@@ -13837,19 +13765,19 @@
       </c>
       <c r="BG32" s="60">
         <f t="shared" ref="BG32:BU32" si="264">BG$31*12</f>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="BH32" s="60">
         <f t="shared" si="264"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="BI32" s="60">
         <f t="shared" si="264"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="BJ32" s="60">
         <f t="shared" si="264"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="BK32" s="60">
         <f t="shared" si="264"/>
@@ -13897,19 +13825,19 @@
       </c>
       <c r="BW32" s="60">
         <f t="shared" ref="BW32:CK32" si="265">BW$31*12</f>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="BX32" s="60">
         <f t="shared" si="265"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="BY32" s="60">
         <f t="shared" si="265"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="BZ32" s="60">
         <f t="shared" si="265"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="CA32" s="60">
         <f t="shared" si="265"/>
@@ -13957,19 +13885,19 @@
       </c>
       <c r="CM32" s="60">
         <f t="shared" ref="CM32:DA32" si="266">CM$31*12</f>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="CN32" s="60">
         <f t="shared" si="266"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="CO32" s="60">
         <f t="shared" si="266"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="CP32" s="60">
         <f t="shared" si="266"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="CQ32" s="60">
         <f t="shared" si="266"/>
@@ -14017,19 +13945,19 @@
       </c>
       <c r="DC32" s="60">
         <f t="shared" ref="DC32:DQ32" si="267">DC$31*12</f>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="DD32" s="60">
         <f t="shared" si="267"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="DE32" s="60">
         <f t="shared" si="267"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="DF32" s="60">
         <f t="shared" si="267"/>
-        <v>6.0078363407594235</v>
+        <v>0</v>
       </c>
       <c r="DG32" s="60">
         <f t="shared" si="267"/>
@@ -14081,24 +14009,16 @@
       <c r="A33" s="119" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="110">
-        <v>3</v>
-      </c>
-      <c r="C33" s="174">
-        <v>3</v>
-      </c>
+      <c r="B33" s="110"/>
+      <c r="C33" s="174"/>
       <c r="D33" s="174"/>
-      <c r="E33" s="174">
-        <v>3</v>
-      </c>
+      <c r="E33" s="174"/>
       <c r="F33" s="174"/>
-      <c r="G33" s="174">
-        <v>3</v>
-      </c>
+      <c r="G33" s="174"/>
       <c r="H33" s="174"/>
       <c r="I33" s="126">
         <f>SUM(B33:G33)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J33" s="84"/>
       <c r="K33" s="84"/>
@@ -14113,19 +14033,19 @@
       </c>
       <c r="AA33" s="85">
         <f t="shared" ref="AA33:AO33" si="268">TRUNC(IF(AA$12=0,0,IFERROR(((AA$24-AA$27)/AA$32),0)),2)</f>
-        <v>-2170.6</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="85">
         <f t="shared" si="268"/>
-        <v>-2175.4899999999998</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="85">
         <f t="shared" si="268"/>
-        <v>-2175.98</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="85">
         <f t="shared" si="268"/>
-        <v>-2175.4899999999998</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="85">
         <f t="shared" si="268"/>
@@ -14173,19 +14093,19 @@
       </c>
       <c r="AQ33" s="85">
         <f t="shared" ref="AQ33:BE33" si="269">TRUNC(IF(AQ$12=0,0,IFERROR(((AQ$24-AQ$27)/AQ$32),0)),2)</f>
-        <v>-2170.6</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="85">
         <f t="shared" si="269"/>
-        <v>-2175.4899999999998</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="85">
         <f t="shared" si="269"/>
-        <v>-2175.98</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="85">
         <f t="shared" si="269"/>
-        <v>-2175.4899999999998</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="85">
         <f t="shared" si="269"/>
@@ -14233,19 +14153,19 @@
       </c>
       <c r="BG33" s="85">
         <f t="shared" ref="BG33:BU33" si="270">TRUNC(IF(BG$12=0,0,IFERROR(((BG$24-BG$27)/BG$32),0)),2)</f>
-        <v>-2170.6</v>
+        <v>0</v>
       </c>
       <c r="BH33" s="85">
         <f t="shared" si="270"/>
-        <v>-2175.4899999999998</v>
+        <v>0</v>
       </c>
       <c r="BI33" s="85">
         <f t="shared" si="270"/>
-        <v>-2175.98</v>
+        <v>0</v>
       </c>
       <c r="BJ33" s="85">
         <f t="shared" si="270"/>
-        <v>-2175.4899999999998</v>
+        <v>0</v>
       </c>
       <c r="BK33" s="85">
         <f t="shared" si="270"/>
@@ -14293,19 +14213,19 @@
       </c>
       <c r="BW33" s="85">
         <f t="shared" ref="BW33:CK33" si="271">TRUNC(IF(BW$12=0,0,IFERROR(((BW$24-BW$27)/BW$32),0)),2)</f>
-        <v>-2170.6</v>
+        <v>0</v>
       </c>
       <c r="BX33" s="85">
         <f t="shared" si="271"/>
-        <v>-2175.4899999999998</v>
+        <v>0</v>
       </c>
       <c r="BY33" s="85">
         <f t="shared" si="271"/>
-        <v>-2175.98</v>
+        <v>0</v>
       </c>
       <c r="BZ33" s="85">
         <f t="shared" si="271"/>
-        <v>-2175.4899999999998</v>
+        <v>0</v>
       </c>
       <c r="CA33" s="85">
         <f t="shared" si="271"/>
@@ -14353,19 +14273,19 @@
       </c>
       <c r="CM33" s="85">
         <f t="shared" ref="CM33:DA33" si="272">TRUNC(IF(CM$12=0,0,IFERROR(((CM$24-CM$27)/CM$32),0)),2)</f>
-        <v>-2170.4499999999998</v>
+        <v>0</v>
       </c>
       <c r="CN33" s="85">
         <f t="shared" si="272"/>
-        <v>-2175.34</v>
+        <v>0</v>
       </c>
       <c r="CO33" s="85">
         <f t="shared" si="272"/>
-        <v>-2175.83</v>
+        <v>0</v>
       </c>
       <c r="CP33" s="85">
         <f t="shared" si="272"/>
-        <v>-2175.34</v>
+        <v>0</v>
       </c>
       <c r="CQ33" s="85">
         <f t="shared" si="272"/>
@@ -14413,19 +14333,19 @@
       </c>
       <c r="DC33" s="85">
         <f t="shared" ref="DC33:DQ33" si="273">TRUNC(IF(DC$12=0,0,IFERROR(((DC$24-DC$27)/DC$32),0)),2)</f>
-        <v>-2170.6</v>
+        <v>0</v>
       </c>
       <c r="DD33" s="85">
         <f t="shared" si="273"/>
-        <v>-2175.4899999999998</v>
+        <v>0</v>
       </c>
       <c r="DE33" s="85">
         <f t="shared" si="273"/>
-        <v>-2175.98</v>
+        <v>0</v>
       </c>
       <c r="DF33" s="85">
         <f t="shared" si="273"/>
-        <v>-2175.4899999999998</v>
+        <v>0</v>
       </c>
       <c r="DG33" s="85">
         <f t="shared" si="273"/>
@@ -14476,24 +14396,16 @@
       <c r="A34" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="110">
-        <v>3</v>
-      </c>
-      <c r="C34" s="174">
-        <v>3</v>
-      </c>
+      <c r="B34" s="110"/>
+      <c r="C34" s="174"/>
       <c r="D34" s="174"/>
-      <c r="E34" s="174">
-        <v>3</v>
-      </c>
+      <c r="E34" s="174"/>
       <c r="F34" s="174"/>
-      <c r="G34" s="174">
-        <v>3</v>
-      </c>
+      <c r="G34" s="174"/>
       <c r="H34" s="174"/>
       <c r="I34" s="126">
         <f>SUM(B34:G34)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J34" s="84"/>
       <c r="K34" s="84"/>
@@ -14508,24 +14420,16 @@
       <c r="A35" s="119" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="110">
-        <v>3</v>
-      </c>
-      <c r="C35" s="174">
-        <v>3</v>
-      </c>
+      <c r="B35" s="110"/>
+      <c r="C35" s="174"/>
       <c r="D35" s="174"/>
-      <c r="E35" s="174">
-        <v>3</v>
-      </c>
+      <c r="E35" s="174"/>
       <c r="F35" s="174"/>
-      <c r="G35" s="174">
-        <v>3</v>
-      </c>
+      <c r="G35" s="174"/>
       <c r="H35" s="174"/>
       <c r="I35" s="126">
         <f>SUM(B35:G35)*0.9</f>
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="J35" s="84"/>
       <c r="K35" s="84"/>
@@ -14540,24 +14444,16 @@
       <c r="A36" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="110">
-        <v>3</v>
-      </c>
-      <c r="C36" s="174">
-        <v>3</v>
-      </c>
+      <c r="B36" s="110"/>
+      <c r="C36" s="174"/>
       <c r="D36" s="174"/>
-      <c r="E36" s="174">
-        <v>3</v>
-      </c>
+      <c r="E36" s="174"/>
       <c r="F36" s="174"/>
-      <c r="G36" s="174">
-        <v>3</v>
-      </c>
+      <c r="G36" s="174"/>
       <c r="H36" s="174"/>
       <c r="I36" s="126">
         <f>SUM(B36:G36)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J36" s="84"/>
       <c r="K36" s="84"/>
@@ -14575,26 +14471,26 @@
       </c>
       <c r="B37" s="128">
         <f>B31+B32+B33+B34+(B35*0.9)+B36</f>
-        <v>47.7</v>
+        <v>0</v>
       </c>
       <c r="C37" s="208">
         <f>C31+C32+C33+C34+(C35*0.9)+C36</f>
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="D37" s="208"/>
       <c r="E37" s="208">
         <f>E31+E32+E33+E34+(E35*0.9)+E36</f>
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="F37" s="208"/>
       <c r="G37" s="208">
         <f>G31+G32+G33+G34+(G35*0.9)+G36</f>
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="H37" s="208"/>
       <c r="I37" s="129">
         <f>SUM(I31:I36)</f>
-        <v>100.8</v>
+        <v>0</v>
       </c>
       <c r="J37" s="84"/>
       <c r="K37" s="84"/>
@@ -14928,7 +14824,7 @@
       <c r="H51" s="188"/>
       <c r="I51" s="137">
         <f>IFERROR(IF(($F$13+$T$4)&gt;$T$3,IFERROR(((-CUMIPMT(($F$13+$T$4)/12,($C$13-$D$13)*12,$B$13,1,($C$13-$D$13)*12,0)+(-IPMT(($F$13+$T$4)/12,1,$D$13*12,$B$13)*$D$13*12)+$B$13)/$C$13),((-CUMIPMT(($F$13+$T$4)/12,$C$13*12,$B$13,1,$C$13*12,0)+$B$13)/$C$13)),IFERROR(((-CUMIPMT($T$3/12,($C$13-$D$13)*12,$B$13,1,($C$13-$D$13)*12,0)+(-IPMT($T$3/12,1,$D$13*12,$B$13)*$D$13*12)+$B$13)/$C$13),((-CUMIPMT($T$3/12,$C$13*12,$B$13,1,$C$13*12,0)+$B$13)/$C$13))),0)+IFERROR(IF(($F$14+$T$4)&gt;$T$3,IFERROR(((-CUMIPMT(($F$14+$T$4)/12,($C$14-$D$14)*12,$B$14,1,($C$14-$D$14)*12,0)+(-IPMT(($F$14+$T$4)/12,1,$D$14*12,$B$14)*$D$14*12)+$B$14)/$C$14),((-CUMIPMT(($F$14+$T$4)/12,$C$14*12,$B$14,1,$C$14*12,0)+$B$14)/$C$14)),IFERROR(((-CUMIPMT($T$3/12,($C$14-$D$14)*12,$B$14,1,($C$14-$D$14)*12,0)+(-IPMT($T$3/12,1,$D$14*12,$B$14)*$D$14*12)+$B$14)/$C$14),((-CUMIPMT($T$3/12,$C$14*12,$B$14,1,$C$14*12,0)+$B$14)/$C$14))),0)+IFERROR(IF(($F$15+$T$4)&gt;$T$3,IFERROR(((-CUMIPMT(($F$15+$T$4)/12,($C$15-$D$15)*12,$B$15,1,($C$15-$D$15)*12,0)+(-IPMT(($F$15+$T$4)/12,1,$D$15*12,$B$15)*$D$15*12)+$B$15)/$C$15),((-CUMIPMT(($F$15+$T$4)/12,$C$15*12,$B$15,1,$C$15*12,0)+$B$15)/$C$15)),IFERROR(((-CUMIPMT($T$3/12,($C$15-$D$15)*12,$B$15,1,($C$15-$D$15)*12,0)+(-IPMT($T$3/12,1,$D$15*12,$B$15)*$D$15*12)+$B$15)/$C$15),((-CUMIPMT($T$3/12,$C$15*12,$B$15,1,$C$15*12,0)+$B$15)/$C$15))),0)+IFERROR(IF(($F$16+$T$4)&gt;$T$3,IFERROR(((-CUMIPMT(($F$16+$T$4)/12,($C$16-$D$16)*12,$B$16,1,($C$16-$D$16)*12,0)+(-IPMT(($F$16+$T$4)/12,1,$D$16*12,$B$16)*$D$16*12)+$B$16)/$C$16),((-CUMIPMT(($F$16+$T$4)/12,$C$16*12,$B$16,1,$C$16*12,0)+$B$16)/$C$16)),IFERROR(((-CUMIPMT($T$3/12,($C$16-$D$16)*12,$B$16,1,($C$16-$D$16)*12,0)+(-IPMT($T$3/12,1,$D$16*12,$B$16)*$D$16*12)+$B$16)/$C$16),((-CUMIPMT($T$3/12,$C$16*12,$B$16,1,$C$16*12,0)+$B$16)/$C$16))),0)+IFERROR(IF(($F$17+$T$4)&gt;$T$3,IFERROR(((-CUMIPMT(($F$17+$T$4)/12,($C$17-$D$17)*12,$B$17,1,($C$17-$D$17)*12,0)+(-IPMT(($F$17+$T$4)/12,1,$D$17*12,$B$17)*$D$17*12)+$B$17)/$C$17),((-CUMIPMT(($F$17+$T$4)/12,$C$17*12,$B$17,1,$C$17*12,0)+$B$17)/$C$17)),IFERROR(((-CUMIPMT($T$3/12,($C$17-$D$17)*12,$B$17,1,($C$17-$D$17)*12,0)+(-IPMT($T$3/12,1,$D$17*12,$B$17)*$D$17*12)+$B$17)/$C$17),((-CUMIPMT($T$3/12,$C$17*12,$B$17,1,$C$17*12,0)+$B$17)/$C$17))),0)</f>
-        <v>4.7788943937411545</v>
+        <v>0</v>
       </c>
       <c r="J51" s="91"/>
       <c r="K51" s="91"/>
@@ -17354,7 +17250,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17646,7 +17542,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P116"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
